--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Sdc1</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H2">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.718740829948282</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N2">
-        <v>0.718740829948282</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O2">
-        <v>0.03041796924217072</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P2">
-        <v>0.03041796924217072</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q2">
-        <v>0.01999019429812824</v>
+        <v>0.1017901055831111</v>
       </c>
       <c r="R2">
-        <v>0.01999019429812824</v>
+        <v>0.9161109502480002</v>
       </c>
       <c r="S2">
-        <v>0.0002833089199680613</v>
+        <v>0.001160781425658575</v>
       </c>
       <c r="T2">
-        <v>0.0002833089199680613</v>
+        <v>0.001160781425658575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H3">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0880808476034</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N3">
-        <v>12.0880808476034</v>
+        <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.5115820002124147</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P3">
-        <v>0.5115820002124147</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q3">
-        <v>0.3362033639475615</v>
+        <v>0.8988862098435556</v>
       </c>
       <c r="R3">
-        <v>0.3362033639475615</v>
+        <v>8.089975888592001</v>
       </c>
       <c r="S3">
-        <v>0.004764806710184466</v>
+        <v>0.01025060746513418</v>
       </c>
       <c r="T3">
-        <v>0.004764806710184466</v>
+        <v>0.01025060746513418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H4">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I4">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J4">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1939911163792</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N4">
-        <v>1.1939911163792</v>
+        <v>7.355213</v>
       </c>
       <c r="O4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q4">
-        <v>0.03320823503011053</v>
+        <v>0.1811213028791111</v>
       </c>
       <c r="R4">
-        <v>0.03320823503011053</v>
+        <v>1.630091725912</v>
       </c>
       <c r="S4">
-        <v>0.0004706402078996841</v>
+        <v>0.002065448728722375</v>
       </c>
       <c r="T4">
-        <v>0.0004706402078996841</v>
+        <v>0.002065448728722375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H5">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I5">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J5">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6217935744948609</v>
+        <v>0.905288</v>
       </c>
       <c r="N5">
-        <v>0.6217935744948609</v>
+        <v>2.715864</v>
       </c>
       <c r="O5">
-        <v>0.02631504575206202</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P5">
-        <v>0.02631504575206202</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q5">
-        <v>0.01729381976028041</v>
+        <v>0.06687784923733334</v>
       </c>
       <c r="R5">
-        <v>0.01729381976028041</v>
+        <v>0.601900643136</v>
       </c>
       <c r="S5">
-        <v>0.0002450948362651043</v>
+        <v>0.0007626533516001323</v>
       </c>
       <c r="T5">
-        <v>0.0002450948362651043</v>
+        <v>0.0007626533516001322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H6">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I6">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J6">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.00621724652609</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N6">
-        <v>9.00621724652609</v>
+        <v>2.446034</v>
       </c>
       <c r="O6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q6">
-        <v>0.2504881108008916</v>
+        <v>0.06023331546844445</v>
       </c>
       <c r="R6">
-        <v>0.2504881108008916</v>
+        <v>0.542099839216</v>
       </c>
       <c r="S6">
-        <v>0.003550016326879097</v>
+        <v>0.0006868812386142599</v>
       </c>
       <c r="T6">
-        <v>0.003550016326879097</v>
+        <v>0.0006868812386142597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.44618154757366</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H7">
-        <v>2.44618154757366</v>
+        <v>0.221624</v>
       </c>
       <c r="I7">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J7">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.718740829948282</v>
+        <v>9.939698</v>
       </c>
       <c r="N7">
-        <v>0.718740829948282</v>
+        <v>29.819094</v>
       </c>
       <c r="O7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q7">
-        <v>1.758170555707265</v>
+        <v>0.7342918765173334</v>
       </c>
       <c r="R7">
-        <v>1.758170555707265</v>
+        <v>6.608626888656</v>
       </c>
       <c r="S7">
-        <v>0.02491748673516951</v>
+        <v>0.008373626949206367</v>
       </c>
       <c r="T7">
-        <v>0.02491748673516951</v>
+        <v>0.008373626949206365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H8">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I8">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J8">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.0880808476034</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N8">
-        <v>12.0880808476034</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O8">
-        <v>0.5115820002124147</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P8">
-        <v>0.5115820002124147</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q8">
-        <v>29.569640314986</v>
+        <v>3.498265106213667</v>
       </c>
       <c r="R8">
-        <v>29.569640314986</v>
+        <v>31.484385955923</v>
       </c>
       <c r="S8">
-        <v>0.4190726081270323</v>
+        <v>0.03989308326246688</v>
       </c>
       <c r="T8">
-        <v>0.4190726081270323</v>
+        <v>0.03989308326246688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H9">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I9">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J9">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.1939911163792</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N9">
-        <v>1.1939911163792</v>
+        <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.05053112824557491</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P9">
-        <v>0.05053112824557491</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q9">
-        <v>2.920719036853674</v>
+        <v>30.89241576417133</v>
       </c>
       <c r="R9">
-        <v>2.920719036853674</v>
+        <v>278.031741877542</v>
       </c>
       <c r="S9">
-        <v>0.04139358244950374</v>
+        <v>0.3522871128519781</v>
       </c>
       <c r="T9">
-        <v>0.04139358244950374</v>
+        <v>0.3522871128519781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H10">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I10">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J10">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6217935744948609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N10">
-        <v>0.6217935744948609</v>
+        <v>7.355213</v>
       </c>
       <c r="O10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q10">
-        <v>1.521019968329197</v>
+        <v>6.224675082359666</v>
       </c>
       <c r="R10">
-        <v>1.521019968329197</v>
+        <v>56.022075741237</v>
       </c>
       <c r="S10">
-        <v>0.02155649505205401</v>
+        <v>0.07098418038738831</v>
       </c>
       <c r="T10">
-        <v>0.02155649505205401</v>
+        <v>0.0709841803873883</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H11">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I11">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J11">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>9.00621724652609</v>
+        <v>0.905288</v>
       </c>
       <c r="N11">
-        <v>9.00621724652609</v>
+        <v>2.715864</v>
       </c>
       <c r="O11">
-        <v>0.3811538565477776</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P11">
-        <v>0.3811538565477776</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q11">
-        <v>22.03084244189177</v>
+        <v>2.298420313304</v>
       </c>
       <c r="R11">
-        <v>22.03084244189177</v>
+        <v>20.685782819736</v>
       </c>
       <c r="S11">
-        <v>0.3122297905220114</v>
+        <v>0.02621044150368099</v>
       </c>
       <c r="T11">
-        <v>0.3122297905220114</v>
+        <v>0.02621044150368098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5121766049172271</v>
+        <v>2.538883</v>
       </c>
       <c r="H12">
-        <v>0.5121766049172271</v>
+        <v>7.616649</v>
       </c>
       <c r="I12">
-        <v>0.1715161701130326</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J12">
-        <v>0.1715161701130326</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.718740829948282</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N12">
-        <v>0.718740829948282</v>
+        <v>2.446034</v>
       </c>
       <c r="O12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q12">
-        <v>0.3681222380983011</v>
+        <v>2.070064713340666</v>
       </c>
       <c r="R12">
-        <v>0.3681222380983011</v>
+        <v>18.630582420066</v>
       </c>
       <c r="S12">
-        <v>0.005217173587033145</v>
+        <v>0.02360634813562639</v>
       </c>
       <c r="T12">
-        <v>0.005217173587033145</v>
+        <v>0.02360634813562639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5121766049172271</v>
+        <v>2.538883</v>
       </c>
       <c r="H13">
-        <v>0.5121766049172271</v>
+        <v>7.616649</v>
       </c>
       <c r="I13">
-        <v>0.1715161701130326</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J13">
-        <v>0.1715161701130326</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0880808476034</v>
+        <v>9.939698</v>
       </c>
       <c r="N13">
-        <v>12.0880808476034</v>
+        <v>29.819094</v>
       </c>
       <c r="O13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q13">
-        <v>6.191232208490466</v>
+        <v>25.235730277334</v>
       </c>
       <c r="R13">
-        <v>6.191232208490466</v>
+        <v>227.121572496006</v>
       </c>
       <c r="S13">
-        <v>0.08774458537519798</v>
+        <v>0.2877801020153309</v>
       </c>
       <c r="T13">
-        <v>0.08774458537519798</v>
+        <v>0.2877801020153309</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H14">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I14">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J14">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1939911163792</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N14">
-        <v>1.1939911163792</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O14">
-        <v>0.05053112824557491</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P14">
-        <v>0.05053112824557491</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q14">
-        <v>0.6115343162884285</v>
+        <v>3.444689166666667E-05</v>
       </c>
       <c r="R14">
-        <v>0.6115343162884285</v>
+        <v>0.000310022025</v>
       </c>
       <c r="S14">
-        <v>0.00866690558817149</v>
+        <v>3.928212058459063E-07</v>
       </c>
       <c r="T14">
-        <v>0.00866690558817149</v>
+        <v>3.928212058459062E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H15">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I15">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J15">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6217935744948609</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N15">
-        <v>0.6217935744948609</v>
+        <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.02631504575206202</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P15">
-        <v>0.02631504575206202</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q15">
-        <v>0.3184681219441248</v>
+        <v>0.0003041929833333333</v>
       </c>
       <c r="R15">
-        <v>0.3184681219441248</v>
+        <v>0.00273773685</v>
       </c>
       <c r="S15">
-        <v>0.004513455863742904</v>
+        <v>3.468918347674726E-06</v>
       </c>
       <c r="T15">
-        <v>0.004513455863742904</v>
+        <v>3.468918347674726E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1405,49 +1408,607 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H16">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I16">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J16">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.00621724652609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N16">
-        <v>9.00621724652609</v>
+        <v>7.355213</v>
       </c>
       <c r="O16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q16">
-        <v>4.61277377247271</v>
+        <v>6.129344166666667E-05</v>
       </c>
       <c r="R16">
-        <v>4.61277377247271</v>
+        <v>0.000551640975</v>
       </c>
       <c r="S16">
-        <v>0.06537404969888702</v>
+        <v>6.989705747309773E-07</v>
       </c>
       <c r="T16">
-        <v>0.06537404969888702</v>
+        <v>6.989705747309771E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H17">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I17">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J17">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.905288</v>
+      </c>
+      <c r="N17">
+        <v>2.715864</v>
+      </c>
+      <c r="O17">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P17">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q17">
+        <v>2.26322E-05</v>
+      </c>
+      <c r="R17">
+        <v>0.0002036898</v>
+      </c>
+      <c r="S17">
+        <v>2.580902852128376E-07</v>
+      </c>
+      <c r="T17">
+        <v>2.580902852128375E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H18">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I18">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J18">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.446034</v>
+      </c>
+      <c r="O18">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P18">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q18">
+        <v>2.038361666666667E-05</v>
+      </c>
+      <c r="R18">
+        <v>0.00018345255</v>
+      </c>
+      <c r="S18">
+        <v>2.324481685019198E-07</v>
+      </c>
+      <c r="T18">
+        <v>2.324481685019198E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H19">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I19">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J19">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.939698</v>
+      </c>
+      <c r="N19">
+        <v>29.819094</v>
+      </c>
+      <c r="O19">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P19">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q19">
+        <v>0.00024849245</v>
+      </c>
+      <c r="R19">
+        <v>0.00223643205</v>
+      </c>
+      <c r="S19">
+        <v>2.833727489759581E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.83372748975958E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.557804</v>
+      </c>
+      <c r="H20">
+        <v>1.673412</v>
+      </c>
+      <c r="I20">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J20">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P20">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q20">
+        <v>0.7685845583693335</v>
+      </c>
+      <c r="R20">
+        <v>6.917261025324001</v>
+      </c>
+      <c r="S20">
+        <v>0.008764689596226796</v>
+      </c>
+      <c r="T20">
+        <v>0.008764689596226794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.557804</v>
+      </c>
+      <c r="H21">
+        <v>1.673412</v>
+      </c>
+      <c r="I21">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J21">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N21">
+        <v>36.503158</v>
+      </c>
+      <c r="O21">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P21">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q21">
+        <v>6.787202515010666</v>
+      </c>
+      <c r="R21">
+        <v>61.084822635096</v>
+      </c>
+      <c r="S21">
+        <v>0.07739906120025412</v>
+      </c>
+      <c r="T21">
+        <v>0.07739906120025411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.557804</v>
+      </c>
+      <c r="H22">
+        <v>1.673412</v>
+      </c>
+      <c r="I22">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J22">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.355213</v>
+      </c>
+      <c r="O22">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P22">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q22">
+        <v>1.367589077417333</v>
+      </c>
+      <c r="R22">
+        <v>12.308301696756</v>
+      </c>
+      <c r="S22">
+        <v>0.01559554329868952</v>
+      </c>
+      <c r="T22">
+        <v>0.01559554329868952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.557804</v>
+      </c>
+      <c r="H23">
+        <v>1.673412</v>
+      </c>
+      <c r="I23">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J23">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.905288</v>
+      </c>
+      <c r="N23">
+        <v>2.715864</v>
+      </c>
+      <c r="O23">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P23">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q23">
+        <v>0.504973267552</v>
+      </c>
+      <c r="R23">
+        <v>4.544759407968</v>
+      </c>
+      <c r="S23">
+        <v>0.005758551738114466</v>
+      </c>
+      <c r="T23">
+        <v>0.005758551738114465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.557804</v>
+      </c>
+      <c r="H24">
+        <v>1.673412</v>
+      </c>
+      <c r="I24">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J24">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N24">
+        <v>2.446034</v>
+      </c>
+      <c r="O24">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P24">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q24">
+        <v>0.4548025164453333</v>
+      </c>
+      <c r="R24">
+        <v>4.093222648008</v>
+      </c>
+      <c r="S24">
+        <v>0.005186420727321796</v>
+      </c>
+      <c r="T24">
+        <v>0.005186420727321795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.557804</v>
+      </c>
+      <c r="H25">
+        <v>1.673412</v>
+      </c>
+      <c r="I25">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J25">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.939698</v>
+      </c>
+      <c r="N25">
+        <v>29.819094</v>
+      </c>
+      <c r="O25">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P25">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q25">
+        <v>5.544403303191999</v>
+      </c>
+      <c r="R25">
+        <v>49.89962972872799</v>
+      </c>
+      <c r="S25">
+        <v>0.06322658114791413</v>
+      </c>
+      <c r="T25">
+        <v>0.06322658114791412</v>
       </c>
     </row>
   </sheetData>
